--- a/NCHLStats/bin/Debug/Calendrier 2017-18.xlsx
+++ b/NCHLStats/bin/Debug/Calendrier 2017-18.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCS\prog\CalendarGenerator\CalendarGenerator\CalendarGenerator\bin\Debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DOCS\prog\NCHLStats\NCHLStats\NCHLStats\bin\Debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -921,7 +921,8 @@
   <dimension ref="A1:AC33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
